--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2880.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2880.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.204153628434757</v>
+        <v>2.426185846328735</v>
       </c>
       <c r="B1">
-        <v>1.887431795849651</v>
+        <v>2.717191934585571</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.920148849487305</v>
       </c>
       <c r="D1">
-        <v>1.900940473199101</v>
+        <v>3.166586399078369</v>
       </c>
       <c r="E1">
-        <v>1.203883956825403</v>
+        <v>0.7981216311454773</v>
       </c>
     </row>
   </sheetData>
